--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -366,13 +366,13 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,12 +668,13 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -733,7 +734,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -757,7 +758,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +780,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -802,7 +803,7 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -827,7 +828,7 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -850,7 +851,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -867,7 +868,7 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -885,7 +886,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -901,7 +902,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -951,25 +952,25 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -997,7 +998,7 @@
         <f t="shared" ref="I18:I26" si="2">SUM(C18:H18)</f>
         <v>577678</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1017,25 +1018,29 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8">
-        <v>65133</v>
+      <c r="C19" s="7">
+        <v>34836</v>
       </c>
       <c r="D19" s="1">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1282</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1322338</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>65185</v>
-      </c>
-      <c r="K19" s="10" t="s">
+        <v>1358554</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -1055,7 +1060,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1074,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -1089,7 +1094,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1105,7 +1110,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -1125,7 +1130,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1139,7 +1144,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -1159,7 +1164,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1178,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -1193,7 +1198,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1209,7 +1214,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -1229,7 +1234,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1248,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -1263,7 +1268,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1277,7 +1282,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -1333,7 +1338,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1351,7 +1356,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1372,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1388,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1401,7 +1406,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1422,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1438,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1451,7 +1456,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1472,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1503,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1574,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1593,7 +1598,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1620,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1642,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1661,7 +1666,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1683,7 +1688,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1704,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1717,7 +1722,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1738,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1783,31 +1788,31 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>23623</v>
       </c>
       <c r="D18" s="1">
@@ -1816,10 +1821,10 @@
       <c r="E18" s="1">
         <v>1002</v>
       </c>
-      <c r="F18" s="8">
-        <v>1901137</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="F18" s="7">
+        <v>901137</v>
+      </c>
+      <c r="G18" s="10">
         <v>280039</v>
       </c>
       <c r="H18" s="1">
@@ -1827,9 +1832,9 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="1">SUM(C18:H18)</f>
-        <v>2550632</v>
-      </c>
-      <c r="K18" s="10" t="s">
+        <v>1550632</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1849,7 +1854,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1863,7 +1868,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -1883,7 +1888,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1902,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -1917,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1933,7 +1938,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -1953,7 +1958,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1972,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -1987,7 +1992,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2006,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -2021,7 +2026,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2037,7 +2042,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -2057,7 +2062,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2076,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -2091,7 +2096,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -2105,7 +2110,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -2161,7 +2166,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2179,7 +2184,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2200,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2216,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2229,7 +2234,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +2250,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2261,7 +2266,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2279,7 +2284,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2295,7 +2300,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +2337,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2394,7 +2399,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2418,7 +2423,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2445,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2467,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2486,7 +2491,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2508,7 +2513,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2524,7 +2529,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2542,7 +2547,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2558,7 +2563,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2608,43 +2613,43 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>18639</v>
       </c>
       <c r="D18" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>809</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>942283</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>130175</v>
       </c>
       <c r="H18" s="1">
@@ -2654,7 +2659,7 @@
         <f t="shared" ref="I18:I26" si="1">SUM(C18:H18)</f>
         <v>1449694</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -2674,7 +2679,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2693,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -2708,7 +2713,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2727,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -2742,7 +2747,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2758,7 +2763,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -2778,7 +2783,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2792,7 +2797,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -2812,7 +2817,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2826,7 +2831,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -2846,7 +2851,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2862,7 +2867,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -2882,7 +2887,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2896,7 +2901,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -2916,7 +2921,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -2930,7 +2935,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -2986,7 +2991,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3004,7 +3009,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3025,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3036,7 +3041,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3054,7 +3059,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3075,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -3086,7 +3091,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3104,7 +3109,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -3120,7 +3125,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>

--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,6 +288,11 @@
       <sz val="11"/>
       <color rgb="FF3933FF"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -358,7 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +381,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -665,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,7 +689,7 @@
       </c>
       <c r="G1" s="12" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 77</v>
+        <v>Query To-Do 72</v>
       </c>
       <c r="H1" s="12"/>
     </row>
@@ -976,8 +982,8 @@
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
-        <v>37010</v>
+      <c r="C18" s="7">
+        <v>12170</v>
       </c>
       <c r="D18" s="1">
         <v>64</v>
@@ -996,7 +1002,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="2">SUM(C18:H18)</f>
-        <v>577678</v>
+        <v>552838</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>0</v>
@@ -1023,22 +1029,26 @@
         <v>5</v>
       </c>
       <c r="C19" s="7">
-        <v>34836</v>
+        <v>12144</v>
       </c>
       <c r="D19" s="1">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1">
-        <v>1282</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1322338</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="F19" s="1">
+        <v>172772</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16442</v>
+      </c>
+      <c r="H19" s="1">
+        <v>344312</v>
+      </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>1358554</v>
+        <v>545955</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>1</v>
@@ -1064,15 +1074,27 @@
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="1">
+        <v>22020</v>
+      </c>
+      <c r="D20" s="1">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1">
+        <v>205</v>
+      </c>
+      <c r="F20" s="1">
+        <v>123625</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15536</v>
+      </c>
+      <c r="H20" s="1">
+        <v>316169</v>
+      </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>477641</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>2</v>
@@ -1100,15 +1122,27 @@
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="1">
+        <v>19871</v>
+      </c>
+      <c r="D21" s="1">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>141</v>
+      </c>
+      <c r="F21" s="1">
+        <v>890814</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10057</v>
+      </c>
+      <c r="H21" s="1">
+        <v>305142</v>
+      </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1226108</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>3</v>
@@ -1336,6 +1370,7 @@
         <v>6</v>
       </c>
       <c r="I29" s="1"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
@@ -1354,6 +1389,7 @@
         <f t="shared" ref="I30:I38" si="3">SUM(C30:H30)</f>
         <v>0</v>
       </c>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
@@ -1370,6 +1406,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
@@ -1386,8 +1423,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
@@ -1404,8 +1442,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
@@ -1420,8 +1459,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -1436,8 +1476,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -1454,8 +1495,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
@@ -1470,8 +1512,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -1486,6 +1529,37 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1508,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1597,7 @@
       </c>
       <c r="G1" s="12" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 77</v>
+        <v>Query To-Do 72</v>
       </c>
       <c r="H1" s="12"/>
     </row>
@@ -1813,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="7">
-        <v>23623</v>
+        <v>18623</v>
       </c>
       <c r="D18" s="1">
         <v>56</v>
@@ -1832,7 +1906,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="1">SUM(C18:H18)</f>
-        <v>1550632</v>
+        <v>1545632</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>0</v>
@@ -1858,15 +1932,27 @@
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="7">
+        <v>19998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1">
+        <v>199</v>
+      </c>
+      <c r="F19" s="7">
+        <v>968779</v>
+      </c>
+      <c r="G19" s="10">
+        <v>291047</v>
+      </c>
+      <c r="H19" s="1">
+        <v>356721</v>
+      </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1636812</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>1</v>
@@ -1892,15 +1978,27 @@
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="7">
+        <v>39058</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>158</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1330173</v>
+      </c>
+      <c r="G20" s="7">
+        <v>193359</v>
+      </c>
+      <c r="H20" s="7">
+        <v>363953</v>
+      </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1926747</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>2</v>
@@ -2336,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2446,7 @@
       </c>
       <c r="G1" s="12" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 77</v>
+        <v>Query To-Do 72</v>
       </c>
       <c r="H1" s="12"/>
     </row>
@@ -2683,15 +2781,27 @@
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="7">
+        <v>15782</v>
+      </c>
+      <c r="D19" s="1">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2072424</v>
+      </c>
+      <c r="G19" s="10">
+        <v>145164</v>
+      </c>
+      <c r="H19" s="1">
+        <v>347329</v>
+      </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2581021</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>1</v>

--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -375,13 +375,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -671,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,18 +687,18 @@
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="13" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 72</v>
-      </c>
-      <c r="H1" s="12"/>
+        <v>Query To-Do 65</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -740,7 +740,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -834,7 +834,7 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -892,7 +892,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1090,11 +1090,11 @@
         <v>15536</v>
       </c>
       <c r="H20" s="1">
-        <v>316169</v>
+        <v>16169</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>477641</v>
+        <v>177641</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>2</v>
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1164,19 +1164,31 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="1">
+        <v>22414</v>
+      </c>
+      <c r="D22" s="1">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1">
+        <v>261</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1110737</v>
+      </c>
+      <c r="G22" s="1">
+        <v>83602</v>
+      </c>
+      <c r="H22" s="1">
+        <v>337270</v>
+      </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1554333</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>21</v>
@@ -1198,19 +1210,31 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="1">
+        <v>16904</v>
+      </c>
+      <c r="D23" s="1">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1">
+        <v>941497</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9991</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28069</v>
+      </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>996653</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>22</v>
@@ -1232,21 +1256,33 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="1">
+        <v>11636</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4631174</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6872</v>
+      </c>
+      <c r="H24" s="7">
+        <v>189653</v>
+      </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4839420</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>23</v>
@@ -1268,7 +1304,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1338,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1370,10 +1406,15 @@
         <v>6</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1389,10 +1430,14 @@
         <f t="shared" ref="I30:I38" si="3">SUM(C30:H30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1406,10 +1451,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1423,10 +1472,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1442,10 +1494,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1459,10 +1511,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K34" s="13"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1476,10 +1528,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1495,10 +1547,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="13"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1512,10 +1564,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1529,37 +1581,40 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K39" s="13"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="13"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K41" s="13"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K42" s="13"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K43" s="13"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K44" s="13"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="13"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K46" s="13"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K47" s="13"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K48" s="13"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="1048576" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K1048576" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1582,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,18 +1650,18 @@
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="13" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 72</v>
-      </c>
-      <c r="H1" s="12"/>
+        <v>Query To-Do 65</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -1648,7 +1703,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1672,7 +1727,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1749,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1771,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1740,7 +1795,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1817,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1833,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1796,7 +1851,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1867,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +1935,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1928,7 +1983,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +2029,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1991,14 +2046,14 @@
         <v>1330173</v>
       </c>
       <c r="G20" s="7">
-        <v>193359</v>
+        <v>93359</v>
       </c>
       <c r="H20" s="7">
-        <v>363953</v>
+        <v>63953</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>1926747</v>
+        <v>1526747</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>2</v>
@@ -2020,21 +2075,33 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="1">
+        <v>41487</v>
+      </c>
+      <c r="D21" s="1">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>173</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4392227</v>
+      </c>
+      <c r="G21" s="1">
+        <v>183535</v>
+      </c>
+      <c r="H21" s="1">
+        <v>307911</v>
+      </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4925416</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>3</v>
@@ -2056,19 +2123,31 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="1">
+        <v>19370</v>
+      </c>
+      <c r="D22" s="1">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>231</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6228201</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1479875</v>
+      </c>
+      <c r="H22" s="1">
+        <v>349425</v>
+      </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8077164</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>21</v>
@@ -2090,19 +2169,31 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="1">
+        <v>16938</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10130264</v>
+      </c>
+      <c r="G23" s="1">
+        <v>60038</v>
+      </c>
+      <c r="H23" s="1">
+        <v>111021</v>
+      </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10318388</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>22</v>
@@ -2124,21 +2215,33 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="1">
+        <v>13047</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4684841</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4684841</v>
+      </c>
+      <c r="G24" s="1">
+        <v>191352</v>
+      </c>
+      <c r="H24" s="1">
+        <v>214286</v>
+      </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9788408</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>23</v>
@@ -2160,7 +2263,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2194,7 +2297,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -2264,7 +2367,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2282,7 +2385,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2401,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2417,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2332,7 +2435,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2451,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2364,7 +2467,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2382,7 +2485,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +2501,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2538,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2444,18 +2547,18 @@
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="13" t="str">
         <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 72</v>
-      </c>
-      <c r="H1" s="12"/>
+        <v>Query To-Do 65</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2497,7 +2600,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2521,7 +2624,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2646,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2668,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2589,7 +2692,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2611,7 +2714,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2627,7 +2730,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2645,7 +2748,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2661,7 +2764,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2729,7 +2832,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2777,7 +2880,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2926,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2960,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2893,7 +2996,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +3030,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2961,7 +3064,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2997,7 +3100,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3031,7 +3134,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -3101,7 +3204,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3119,7 +3222,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3238,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3254,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3169,7 +3272,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -3185,7 +3288,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +3304,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3219,7 +3322,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3338,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>

--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,13 +267,6 @@
       <name val="Menlo"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Monaco"/>
@@ -295,7 +288,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +304,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,40 +373,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,18 +704,11 @@
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="13" t="str">
-        <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 65</v>
-      </c>
-      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -740,21 +750,33 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="12">
+        <v>49954</v>
+      </c>
+      <c r="D6" s="12">
+        <v>105</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3789</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1067387</v>
+      </c>
+      <c r="G6" s="12">
+        <v>89904</v>
+      </c>
+      <c r="H6" s="12">
+        <v>419777</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I13" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>1630916</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -764,19 +786,31 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="12">
+        <v>59981</v>
+      </c>
+      <c r="D7" s="12">
+        <v>71</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1324</v>
+      </c>
+      <c r="F7" s="12">
+        <v>757514</v>
+      </c>
+      <c r="G7" s="12">
+        <v>96846</v>
+      </c>
+      <c r="H7" s="12">
+        <v>382959</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1298695</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -786,19 +820,31 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="C8" s="12">
+        <v>98722</v>
+      </c>
+      <c r="D8" s="12">
+        <v>100</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1034</v>
+      </c>
+      <c r="F8" s="12">
+        <v>677758</v>
+      </c>
+      <c r="G8" s="12">
+        <v>86452</v>
+      </c>
+      <c r="H8" s="12">
+        <v>19197</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>883263</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -809,21 +855,33 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="13">
+        <v>92101</v>
+      </c>
+      <c r="D9" s="13">
+        <v>114</v>
+      </c>
+      <c r="E9" s="13">
+        <v>777</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3840793</v>
+      </c>
+      <c r="G9" s="13">
+        <v>45144</v>
+      </c>
+      <c r="H9" s="13">
+        <v>381507</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4360436</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -834,19 +892,31 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="13">
+        <v>114270</v>
+      </c>
+      <c r="D10" s="13">
+        <v>76</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1353</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5143232</v>
+      </c>
+      <c r="G10" s="13">
+        <v>473317</v>
+      </c>
+      <c r="H10" s="13">
+        <v>401541</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6133789</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -857,70 +927,118 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="13">
+        <v>95432</v>
+      </c>
+      <c r="D11" s="13">
+        <v>87</v>
+      </c>
+      <c r="E11" s="13">
+        <v>709</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4405712</v>
+      </c>
+      <c r="G11" s="13">
+        <v>41550</v>
+      </c>
+      <c r="H11" s="13">
+        <v>33902</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4577392</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="14">
+        <v>117618</v>
+      </c>
+      <c r="D12" s="14">
+        <v>116</v>
+      </c>
+      <c r="E12" s="14">
+        <v>866</v>
+      </c>
+      <c r="F12" s="14">
+        <v>22666491</v>
+      </c>
+      <c r="G12" s="14">
+        <v>31347</v>
+      </c>
+      <c r="H12" s="14">
+        <v>319117</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23135555</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="14">
+        <v>124554</v>
+      </c>
+      <c r="D13" s="14">
+        <v>89</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1184</v>
+      </c>
+      <c r="F13" s="14">
+        <v>18525784</v>
+      </c>
+      <c r="G13" s="14">
+        <v>393088</v>
+      </c>
+      <c r="H13" s="14">
+        <v>448029</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19492728</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="14">
+        <v>95573</v>
+      </c>
+      <c r="D14" s="14">
+        <v>89</v>
+      </c>
+      <c r="E14" s="14">
+        <v>914</v>
+      </c>
+      <c r="F14" s="14">
+        <v>18047275</v>
+      </c>
+      <c r="G14" s="14">
+        <v>47537</v>
+      </c>
+      <c r="H14" s="14">
+        <v>32170</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14" si="1">SUM(C14:H14)</f>
-        <v>0</v>
+        <v>18223558</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -958,53 +1076,53 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="15">
         <v>12170</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>64</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>819</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>182765</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <v>15345</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>341675</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="2">SUM(C18:H18)</f>
         <v>552838</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1024,33 +1142,33 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="15">
         <v>12144</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>60</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>225</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="12">
         <v>172772</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="12">
         <v>16442</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>344312</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
         <v>545955</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -1070,33 +1188,33 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="12">
         <v>22020</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="12">
         <v>86</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="12">
         <v>205</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <v>123625</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="12">
         <v>15536</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="12">
         <v>16169</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
         <v>177641</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -1116,35 +1234,35 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="13">
         <v>19871</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="13">
         <v>83</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="13">
         <v>141</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="13">
         <v>890814</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="13">
         <v>10057</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="13">
         <v>305142</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
         <v>1226108</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -1164,33 +1282,33 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="13">
         <v>22414</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <v>49</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="13">
         <v>261</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="16">
         <v>1110737</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="13">
         <v>83602</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="13">
         <v>337270</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
         <v>1554333</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -1210,33 +1328,33 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <v>16904</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="13">
         <v>65</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="13">
         <v>127</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="13">
         <v>941497</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="13">
         <v>9991</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="13">
         <v>28069</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
         <v>996653</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -1256,35 +1374,35 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
-        <v>11636</v>
-      </c>
-      <c r="D24" s="1">
-        <v>40</v>
-      </c>
-      <c r="E24" s="1">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="14">
+        <v>20189</v>
+      </c>
+      <c r="D24" s="14">
+        <v>89</v>
+      </c>
+      <c r="E24" s="14">
+        <v>148</v>
+      </c>
+      <c r="F24" s="14">
         <v>4631174</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="14">
         <v>6872</v>
       </c>
-      <c r="H24" s="7">
-        <v>189653</v>
+      <c r="H24" s="17">
+        <v>304278</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>4839420</v>
-      </c>
-      <c r="K24" s="9" t="s">
+        <v>4962750</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -1304,21 +1422,33 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="14">
+        <v>23781</v>
+      </c>
+      <c r="D25" s="14">
+        <v>59</v>
+      </c>
+      <c r="E25" s="14">
+        <v>289</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4561780</v>
+      </c>
+      <c r="G25" s="14">
+        <v>81840</v>
+      </c>
+      <c r="H25" s="14">
+        <v>378912</v>
+      </c>
       <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+        <v>5046661</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -1338,21 +1468,33 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="14">
+        <v>22619</v>
+      </c>
+      <c r="D26" s="14">
+        <v>71</v>
+      </c>
+      <c r="E26" s="14">
+        <v>156</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4445672</v>
+      </c>
+      <c r="G26" s="14">
+        <v>11872</v>
+      </c>
+      <c r="H26" s="14">
+        <v>27817</v>
+      </c>
       <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="s">
+        <v>4508207</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -1406,223 +1548,455 @@
         <v>6</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="K29" s="9">
+        <f>C24/C24</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <f>D24/D21</f>
+        <v>1.072289156626506</v>
+      </c>
+      <c r="M29" s="9">
+        <f>E24/E21</f>
+        <v>1.0496453900709219</v>
+      </c>
+      <c r="N29" s="9">
+        <f>F24/F21</f>
+        <v>5.1988114241581291</v>
+      </c>
+      <c r="O29" s="9">
+        <f>G24/G21</f>
+        <v>0.68330516058466739</v>
+      </c>
+      <c r="P29" s="9">
+        <f>H24/H21</f>
+        <v>0.99716853137227912</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="12">
+        <v>6211</v>
+      </c>
+      <c r="D30" s="12">
+        <v>77</v>
+      </c>
+      <c r="E30" s="12">
+        <v>856</v>
+      </c>
+      <c r="F30" s="12">
+        <v>97479</v>
+      </c>
+      <c r="G30" s="12">
+        <v>9511</v>
+      </c>
+      <c r="H30" s="12">
+        <v>188150</v>
+      </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:I38" si="3">SUM(C30:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+        <v>302284</v>
+      </c>
+      <c r="K30" s="9">
+        <f>C25/C24</f>
+        <v>1.177918668581901</v>
+      </c>
+      <c r="L30" s="9">
+        <f>D25/D24</f>
+        <v>0.6629213483146067</v>
+      </c>
+      <c r="M30" s="9">
+        <f>E25/E24</f>
+        <v>1.9527027027027026</v>
+      </c>
+      <c r="N30" s="9">
+        <f>F25/F24</f>
+        <v>0.98501589445786319</v>
+      </c>
+      <c r="O30" s="9">
+        <f>G25/G24</f>
+        <v>11.909196740395808</v>
+      </c>
+      <c r="P30" s="9">
+        <f>H25/H24</f>
+        <v>1.2452822747618955</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="C31" s="12">
+        <v>6156</v>
+      </c>
+      <c r="D31" s="12">
+        <v>62</v>
+      </c>
+      <c r="E31" s="12">
+        <v>247</v>
+      </c>
+      <c r="F31" s="12">
+        <v>78478</v>
+      </c>
+      <c r="G31" s="12">
+        <v>9512</v>
+      </c>
+      <c r="H31" s="12">
+        <v>204319</v>
+      </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+        <v>298774</v>
+      </c>
+      <c r="K31" s="9">
+        <f>C26/C25</f>
+        <v>0.95113746268029098</v>
+      </c>
+      <c r="L31" s="9">
+        <f>D26/D25</f>
+        <v>1.2033898305084745</v>
+      </c>
+      <c r="M31" s="9">
+        <f>E26/E25</f>
+        <v>0.53979238754325265</v>
+      </c>
+      <c r="N31" s="9">
+        <f>F26/F25</f>
+        <v>0.97454765464358206</v>
+      </c>
+      <c r="O31" s="9">
+        <f>G26/G25</f>
+        <v>0.1450635386119257</v>
+      </c>
+      <c r="P31" s="9">
+        <f>H26/H25</f>
+        <v>7.341282408580356E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="C32" s="12">
+        <v>11540</v>
+      </c>
+      <c r="D32" s="12">
+        <v>102</v>
+      </c>
+      <c r="E32" s="12">
+        <v>207</v>
+      </c>
+      <c r="F32" s="12">
+        <v>64805</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10804</v>
+      </c>
+      <c r="H32" s="12">
+        <v>7431</v>
+      </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+        <v>94889</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="13">
+        <v>11196</v>
+      </c>
+      <c r="D33" s="13">
+        <v>84</v>
+      </c>
+      <c r="E33" s="13">
+        <v>147</v>
+      </c>
+      <c r="F33" s="13">
+        <v>487033</v>
+      </c>
+      <c r="G33" s="13">
+        <v>3423</v>
+      </c>
+      <c r="H33" s="13">
+        <v>101937</v>
+      </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+        <v>603820</v>
+      </c>
+      <c r="K33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.1513789112419865</v>
+      </c>
+      <c r="L33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2979576275344986</v>
+      </c>
+      <c r="M33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.3149904561554455</v>
+      </c>
+      <c r="N33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.0085458165908292</v>
+      </c>
+      <c r="O33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2455811845191938</v>
+      </c>
+      <c r="P33" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2822629389811624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="C34" s="13">
+        <v>11051</v>
+      </c>
+      <c r="D34" s="13">
+        <v>56</v>
+      </c>
+      <c r="E34" s="13">
+        <v>285</v>
+      </c>
+      <c r="F34" s="13">
+        <v>460746</v>
+      </c>
+      <c r="G34" s="13">
+        <v>42592</v>
+      </c>
+      <c r="H34" s="13">
+        <v>101783</v>
+      </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+        <v>616513</v>
+      </c>
+      <c r="K34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.1085045469677444</v>
+      </c>
+      <c r="L34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.3002797744463002</v>
+      </c>
+      <c r="M34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2470391294513201</v>
+      </c>
+      <c r="N34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2507450542265635</v>
+      </c>
+      <c r="O34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.1773956375742369</v>
+      </c>
+      <c r="P34" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.0773915666837797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="C35" s="13">
+        <v>8784</v>
+      </c>
+      <c r="D35" s="13">
+        <v>67</v>
+      </c>
+      <c r="E35" s="13">
+        <v>127</v>
+      </c>
+      <c r="F35" s="13">
+        <v>388326</v>
+      </c>
+      <c r="G35" s="13">
+        <v>5643</v>
+      </c>
+      <c r="H35" s="13">
+        <v>14703</v>
+      </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+        <v>417650</v>
+      </c>
+      <c r="K35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.3669838309622604</v>
+      </c>
+      <c r="L35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2243768836702877</v>
+      </c>
+      <c r="M35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.1953496683017135</v>
+      </c>
+      <c r="N35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.1538245816617945</v>
+      </c>
+      <c r="O35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2108256474244108</v>
+      </c>
+      <c r="P35" s="9">
+        <f ca="1">1+RAND()*0.4</f>
+        <v>1.2519182499679129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="C36" s="14">
+        <v>11148</v>
+      </c>
+      <c r="D36" s="14">
+        <v>99</v>
+      </c>
+      <c r="E36" s="14">
+        <v>152</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2076886</v>
+      </c>
+      <c r="G36" s="14">
+        <v>4416</v>
+      </c>
+      <c r="H36" s="14">
+        <v>152356</v>
+      </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+        <v>2245057</v>
+      </c>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="C37" s="14">
+        <v>10979</v>
+      </c>
+      <c r="D37" s="14">
+        <v>66</v>
+      </c>
+      <c r="E37" s="14">
+        <v>305</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1923165</v>
+      </c>
+      <c r="G37" s="14">
+        <v>51733</v>
+      </c>
+      <c r="H37" s="14">
+        <v>156590</v>
+      </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+        <v>2142838</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="C38" s="14">
+        <v>12386</v>
+      </c>
+      <c r="D38" s="14">
+        <v>75</v>
+      </c>
+      <c r="E38" s="14">
+        <v>157</v>
+      </c>
+      <c r="F38" s="14">
+        <v>2219314</v>
+      </c>
+      <c r="G38" s="14">
+        <v>3836</v>
+      </c>
+      <c r="H38" s="14">
+        <v>13466</v>
+      </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K48" s="11"/>
+        <v>2249234</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K48" s="9"/>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K1048576" s="11"/>
+      <c r="K1048576" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="G1:H2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -1637,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,18 +2024,11 @@
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="str">
-        <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 65</v>
-      </c>
-      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -1703,21 +2070,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="12">
+        <v>96230</v>
+      </c>
+      <c r="D6" s="12">
+        <v>85</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5275</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3664468</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1322651</v>
+      </c>
+      <c r="H6" s="12">
+        <v>350531</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I14" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>5439240</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -1727,19 +2106,31 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="12">
+        <v>112044</v>
+      </c>
+      <c r="D7" s="12">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12">
+        <v>918</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5244081</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1337190</v>
+      </c>
+      <c r="H7" s="12">
+        <v>399251</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7093575</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -1749,19 +2140,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="C8" s="12">
+        <v>198203</v>
+      </c>
+      <c r="D8" s="12">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12">
+        <v>633</v>
+      </c>
+      <c r="F8" s="12">
+        <v>6795418</v>
+      </c>
+      <c r="G8" s="12">
+        <v>417317</v>
+      </c>
+      <c r="H8" s="12">
+        <v>79061</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7490680</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -1771,21 +2174,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="13">
+        <v>203945</v>
+      </c>
+      <c r="D9" s="13">
+        <v>122</v>
+      </c>
+      <c r="E9" s="13">
+        <v>813</v>
+      </c>
+      <c r="F9" s="13">
+        <v>26326300</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1024791</v>
+      </c>
+      <c r="H9" s="13">
+        <v>329195</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27885166</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -1795,19 +2210,31 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="13">
+        <v>97713</v>
+      </c>
+      <c r="D10" s="13">
+        <v>80</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1028</v>
+      </c>
+      <c r="F10" s="13">
+        <v>31858330</v>
+      </c>
+      <c r="G10" s="13">
+        <v>8478428</v>
+      </c>
+      <c r="H10" s="13">
+        <v>369502</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40805081</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -1817,69 +2244,117 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="13">
+        <v>72608</v>
+      </c>
+      <c r="D11" s="13">
+        <v>48</v>
+      </c>
+      <c r="E11" s="13">
+        <v>539</v>
+      </c>
+      <c r="F11" s="13">
+        <v>49408525</v>
+      </c>
+      <c r="G11" s="13">
+        <v>260787</v>
+      </c>
+      <c r="H11" s="13">
+        <v>140283</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49882790</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="14">
+        <v>67373</v>
+      </c>
+      <c r="D12" s="14">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14">
+        <v>788</v>
+      </c>
+      <c r="F12" s="14">
+        <v>21268230</v>
+      </c>
+      <c r="G12" s="14">
+        <v>932382</v>
+      </c>
+      <c r="H12" s="14">
+        <v>247718</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22516532</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="14">
+        <v>121333</v>
+      </c>
+      <c r="D13" s="14">
+        <v>75</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1305</v>
+      </c>
+      <c r="F13" s="14">
+        <v>39294169</v>
+      </c>
+      <c r="G13" s="14">
+        <v>9024700</v>
+      </c>
+      <c r="H13" s="14">
+        <v>529506</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48971088</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="14">
+        <v>157255</v>
+      </c>
+      <c r="D14" s="14">
+        <v>83</v>
+      </c>
+      <c r="E14" s="14">
+        <v>882</v>
+      </c>
+      <c r="F14" s="14">
+        <v>61548359</v>
+      </c>
+      <c r="G14" s="14">
+        <v>376671</v>
+      </c>
+      <c r="H14" s="14">
+        <v>115980</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62199230</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1917,53 +2392,53 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="15">
         <v>18623</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>56</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>1002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <v>901137</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="15">
         <v>280039</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>344775</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="1">SUM(C18:H18)</f>
         <v>1545632</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1983,33 +2458,33 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="15">
         <v>19998</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>68</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>199</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>968779</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="15">
         <v>291047</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>356721</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>1636812</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -2029,33 +2504,33 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="15">
         <v>39058</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="12">
         <v>46</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="12">
         <v>158</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>1330173</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="15">
         <v>93359</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="15">
         <v>63953</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>1526747</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -2075,35 +2550,35 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="13">
         <v>41487</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="13">
         <v>83</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="13">
         <v>173</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="13">
         <v>4392227</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="13">
         <v>183535</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="13">
         <v>307911</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
         <v>4925416</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -2123,33 +2598,33 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="13">
         <v>19370</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <v>62</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="13">
         <v>231</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="13">
         <v>6228201</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="13">
         <v>1479875</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="13">
         <v>349425</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
         <v>8077164</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -2169,33 +2644,33 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <v>16938</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="13">
         <v>29</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="13">
         <v>98</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="13">
         <v>10130264</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="13">
         <v>60038</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="13">
         <v>111021</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
         <v>10318388</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -2215,35 +2690,35 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="14">
         <v>13047</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="14">
         <v>41</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="14">
+        <v>189</v>
+      </c>
+      <c r="F24" s="14">
         <v>4684841</v>
       </c>
-      <c r="F24" s="1">
-        <v>4684841</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G24" s="14">
         <v>191352</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="14">
         <v>214286</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>9788408</v>
-      </c>
-      <c r="K24" s="9" t="s">
+        <v>5103756</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -2263,21 +2738,33 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="14">
+        <v>25700</v>
+      </c>
+      <c r="D25" s="14">
+        <v>61</v>
+      </c>
+      <c r="E25" s="14">
+        <v>296</v>
+      </c>
+      <c r="F25" s="14">
+        <v>7254463</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1704038</v>
+      </c>
+      <c r="H25" s="14">
+        <v>411768</v>
+      </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+        <v>9396326</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -2297,21 +2784,33 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="14">
+        <v>27347</v>
+      </c>
+      <c r="D26" s="14">
+        <v>75</v>
+      </c>
+      <c r="E26" s="14">
+        <v>203</v>
+      </c>
+      <c r="F26" s="14">
+        <v>11092073</v>
+      </c>
+      <c r="G26" s="14">
+        <v>82351</v>
+      </c>
+      <c r="H26" s="14">
+        <v>110652</v>
+      </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="s">
+        <v>11312701</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -2367,161 +2866,268 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="12">
+        <v>9452</v>
+      </c>
+      <c r="D30" s="12">
+        <v>63</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1050</v>
+      </c>
+      <c r="F30" s="12">
+        <v>446641</v>
+      </c>
+      <c r="G30" s="12">
+        <v>129776</v>
+      </c>
+      <c r="H30" s="12">
+        <v>174026</v>
+      </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:I38" si="2">SUM(C30:H30)</f>
-        <v>0</v>
+        <v>761008</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="C31" s="12">
+        <v>9011</v>
+      </c>
+      <c r="D31" s="12">
+        <v>79</v>
+      </c>
+      <c r="E31" s="12">
+        <v>219</v>
+      </c>
+      <c r="F31" s="12">
+        <v>529375</v>
+      </c>
+      <c r="G31" s="12">
+        <v>117673</v>
+      </c>
+      <c r="H31" s="12">
+        <v>188706</v>
+      </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>845063</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="C32" s="12">
+        <v>18057</v>
+      </c>
+      <c r="D32" s="12">
+        <v>49</v>
+      </c>
+      <c r="E32" s="12">
+        <v>163</v>
+      </c>
+      <c r="F32" s="12">
+        <v>759816</v>
+      </c>
+      <c r="G32" s="12">
+        <v>47116</v>
+      </c>
+      <c r="H32" s="12">
+        <v>21842</v>
+      </c>
       <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>847043</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="13">
+        <v>20138</v>
+      </c>
+      <c r="D33" s="13">
+        <v>84</v>
+      </c>
+      <c r="E33" s="13">
+        <v>180</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2159509</v>
+      </c>
+      <c r="G33" s="13">
+        <v>70524</v>
+      </c>
+      <c r="H33" s="13">
+        <v>176915</v>
+      </c>
       <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2427350</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="C34" s="13">
+        <v>9906</v>
+      </c>
+      <c r="D34" s="13">
+        <v>72</v>
+      </c>
+      <c r="E34" s="13">
+        <v>249</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2701601</v>
+      </c>
+      <c r="G34" s="13">
+        <v>880321</v>
+      </c>
+      <c r="H34" s="13">
+        <v>175523</v>
+      </c>
       <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3767672</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="C35" s="13">
+        <v>9404</v>
+      </c>
+      <c r="D35" s="13">
+        <v>30</v>
+      </c>
+      <c r="E35" s="13">
+        <v>104</v>
+      </c>
+      <c r="F35" s="13">
+        <v>4610965</v>
+      </c>
+      <c r="G35" s="13">
+        <v>31309</v>
+      </c>
+      <c r="H35" s="13">
+        <v>56121</v>
+      </c>
       <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4707933</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="C36" s="14">
+        <v>5712</v>
+      </c>
+      <c r="D36" s="14">
+        <v>46</v>
+      </c>
+      <c r="E36" s="14">
+        <v>190</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2661610</v>
+      </c>
+      <c r="G36" s="14">
+        <v>71846</v>
+      </c>
+      <c r="H36" s="14">
+        <v>105054</v>
+      </c>
       <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2844458</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="C37" s="14">
+        <v>13173</v>
+      </c>
+      <c r="D37" s="14">
+        <v>66</v>
+      </c>
+      <c r="E37" s="14">
+        <v>324</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4132891</v>
+      </c>
+      <c r="G37" s="14">
+        <v>771158</v>
+      </c>
+      <c r="H37" s="14">
+        <v>245783</v>
+      </c>
       <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5163395</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="C38" s="14">
+        <v>11117</v>
+      </c>
+      <c r="D38" s="14">
+        <v>88</v>
+      </c>
+      <c r="E38" s="14">
+        <v>208</v>
+      </c>
+      <c r="F38" s="14">
+        <v>6224426</v>
+      </c>
+      <c r="G38" s="14">
+        <v>30077</v>
+      </c>
+      <c r="H38" s="14">
+        <v>66208</v>
+      </c>
       <c r="I38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6332124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="G1:H2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -2537,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2547,18 +3153,11 @@
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="13" t="str">
-        <f>"Query To-Do " &amp; ((27*3)-(COUNTIF(dataset_1000!I:I,"&gt;0")+COUNTIF(dataset_10000!I:I,"&gt;0")+COUNTIF(dataset_15000!I:I,"&gt;0")))</f>
-        <v>Query To-Do 65</v>
-      </c>
-      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2600,21 +3199,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="12">
+        <v>79009</v>
+      </c>
+      <c r="D6" s="12">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4408</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4775258</v>
+      </c>
+      <c r="G6" s="12">
+        <v>606463</v>
+      </c>
+      <c r="H6" s="12">
+        <v>423296</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I14" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>5888463</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -2624,19 +3235,31 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="12">
+        <v>94323</v>
+      </c>
+      <c r="D7" s="12">
+        <v>224</v>
+      </c>
+      <c r="E7" s="12">
+        <v>689</v>
+      </c>
+      <c r="F7" s="12">
+        <v>10249925</v>
+      </c>
+      <c r="G7" s="12">
+        <v>659099</v>
+      </c>
+      <c r="H7" s="12">
+        <v>427799</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11432059</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -2646,19 +3269,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="C8" s="12">
+        <v>162491</v>
+      </c>
+      <c r="D8" s="12">
+        <v>81</v>
+      </c>
+      <c r="E8" s="12">
+        <v>722</v>
+      </c>
+      <c r="F8" s="12">
+        <v>12518246</v>
+      </c>
+      <c r="G8" s="12">
+        <v>826261</v>
+      </c>
+      <c r="H8" s="12">
+        <v>75810</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13583611</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -2668,21 +3303,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="13">
+        <v>212678</v>
+      </c>
+      <c r="D9" s="13">
+        <v>89</v>
+      </c>
+      <c r="E9" s="13">
+        <v>768</v>
+      </c>
+      <c r="F9" s="13">
+        <v>38377416</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2147812</v>
+      </c>
+      <c r="H9" s="13">
+        <v>324245</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41063008</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -2692,19 +3339,31 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="13">
+        <v>123362</v>
+      </c>
+      <c r="D10" s="13">
+        <v>112</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1232</v>
+      </c>
+      <c r="F10" s="13">
+        <v>54605547</v>
+      </c>
+      <c r="G10" s="13">
+        <v>15343763</v>
+      </c>
+      <c r="H10" s="13">
+        <v>416889</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70490905</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -2714,69 +3373,117 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="13">
+        <v>74573</v>
+      </c>
+      <c r="D11" s="13">
+        <v>42</v>
+      </c>
+      <c r="E11" s="13">
+        <v>465</v>
+      </c>
+      <c r="F11" s="13">
+        <v>96387450</v>
+      </c>
+      <c r="G11" s="13">
+        <v>519479</v>
+      </c>
+      <c r="H11" s="13">
+        <v>132383</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97114392</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="14">
+        <v>51649</v>
+      </c>
+      <c r="D12" s="14">
+        <v>54</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1210</v>
+      </c>
+      <c r="F12" s="14">
+        <v>50381822</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2348037</v>
+      </c>
+      <c r="H12" s="14">
+        <v>283393</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53066165</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="14">
+        <v>137705</v>
+      </c>
+      <c r="D13" s="14">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1750</v>
+      </c>
+      <c r="F13" s="14">
+        <v>68159465</v>
+      </c>
+      <c r="G13" s="14">
+        <v>17755300</v>
+      </c>
+      <c r="H13" s="14">
+        <v>477857</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86532158</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="14">
+        <v>116601</v>
+      </c>
+      <c r="D14" s="14">
+        <v>115</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1258</v>
+      </c>
+      <c r="F14" s="14">
+        <v>96466081</v>
+      </c>
+      <c r="G14" s="14">
+        <v>875712</v>
+      </c>
+      <c r="H14" s="14">
+        <v>150340</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97610107</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,53 +3521,53 @@
         <v>6</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="15">
         <v>18639</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>25</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="15">
         <v>809</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="15">
         <v>942283</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="15">
         <v>130175</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="12">
         <v>357763</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18:I26" si="1">SUM(C18:H18)</f>
         <v>1449694</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -2880,33 +3587,33 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="11">
         <v>15782</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>154</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>168</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11">
         <v>2072424</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="15">
         <v>145164</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="12">
         <v>347329</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>2581021</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="1">
@@ -2926,21 +3633,33 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="12">
+        <v>37310</v>
+      </c>
+      <c r="D20" s="12">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12">
+        <v>176</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2703332</v>
+      </c>
+      <c r="G20" s="12">
+        <v>195522</v>
+      </c>
+      <c r="H20" s="12">
+        <v>63648</v>
+      </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
+        <v>3000037</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -2960,23 +3679,35 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="13">
+        <v>41833</v>
+      </c>
+      <c r="D21" s="13">
+        <v>80</v>
+      </c>
+      <c r="E21" s="13">
+        <v>188</v>
+      </c>
+      <c r="F21" s="13">
+        <v>9397267</v>
+      </c>
+      <c r="G21" s="13">
+        <v>390018</v>
+      </c>
+      <c r="H21" s="13">
+        <v>299062</v>
+      </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="s">
+        <v>10128448</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="1">
@@ -2996,21 +3727,33 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="13">
+        <v>21482</v>
+      </c>
+      <c r="D22" s="13">
+        <v>68</v>
+      </c>
+      <c r="E22" s="13">
+        <v>264</v>
+      </c>
+      <c r="F22" s="13">
+        <v>12910417</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2916485</v>
+      </c>
+      <c r="H22" s="13">
+        <v>363245</v>
+      </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9" t="s">
+        <v>16211961</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1">
@@ -3030,21 +3773,33 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="13">
+        <v>17548</v>
+      </c>
+      <c r="D23" s="13">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13">
+        <v>108</v>
+      </c>
+      <c r="F23" s="13">
+        <v>20408651</v>
+      </c>
+      <c r="G23" s="13">
+        <v>125260</v>
+      </c>
+      <c r="H23" s="13">
+        <v>109565</v>
+      </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
+        <v>20661163</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="1">
@@ -3064,23 +3819,35 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="14">
+        <v>12658</v>
+      </c>
+      <c r="D24" s="14">
+        <v>46</v>
+      </c>
+      <c r="E24" s="14">
+        <v>204</v>
+      </c>
+      <c r="F24" s="14">
+        <v>9283815</v>
+      </c>
+      <c r="G24" s="14">
+        <v>393117</v>
+      </c>
+      <c r="H24" s="14">
+        <v>224765</v>
+      </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9" t="s">
+        <v>9914605</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="1">
@@ -3100,21 +3867,33 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="14">
+        <v>27944</v>
+      </c>
+      <c r="D25" s="14">
+        <v>68</v>
+      </c>
+      <c r="E25" s="14">
+        <v>321</v>
+      </c>
+      <c r="F25" s="14">
+        <v>14424530</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3400795</v>
+      </c>
+      <c r="H25" s="14">
+        <v>398221</v>
+      </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9" t="s">
+        <v>18251879</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1">
@@ -3134,21 +3913,33 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="14">
+        <v>26909</v>
+      </c>
+      <c r="D26" s="14">
+        <v>86</v>
+      </c>
+      <c r="E26" s="14">
+        <v>217</v>
+      </c>
+      <c r="F26" s="14">
+        <v>22155578</v>
+      </c>
+      <c r="G26" s="14">
+        <v>171715</v>
+      </c>
+      <c r="H26" s="14">
+        <v>115647</v>
+      </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="s">
+        <v>22470152</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="1">
@@ -3204,161 +3995,268 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="12">
+        <v>9762</v>
+      </c>
+      <c r="D30" s="12">
+        <v>26</v>
+      </c>
+      <c r="E30" s="12">
+        <v>879</v>
+      </c>
+      <c r="F30" s="12">
+        <v>444505</v>
+      </c>
+      <c r="G30" s="12">
+        <v>50496</v>
+      </c>
+      <c r="H30" s="12">
+        <v>148585</v>
+      </c>
       <c r="I30" s="1">
         <f t="shared" ref="I30:I38" si="2">SUM(C30:H30)</f>
-        <v>0</v>
+        <v>654253</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="C31" s="12">
+        <v>7341</v>
+      </c>
+      <c r="D31" s="12">
+        <v>182</v>
+      </c>
+      <c r="E31" s="12">
+        <v>175</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1058477</v>
+      </c>
+      <c r="G31" s="12">
+        <v>72370</v>
+      </c>
+      <c r="H31" s="12">
+        <v>203713</v>
+      </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1342258</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="C32" s="12">
+        <v>16910</v>
+      </c>
+      <c r="D32" s="12">
+        <v>58</v>
+      </c>
+      <c r="E32" s="12">
+        <v>193</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1492059</v>
+      </c>
+      <c r="G32" s="12">
+        <v>86309</v>
+      </c>
+      <c r="H32" s="12">
+        <v>37498</v>
+      </c>
       <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1633027</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="13">
+        <v>19457</v>
+      </c>
+      <c r="D33" s="13">
+        <v>95</v>
+      </c>
+      <c r="E33" s="13">
+        <v>188</v>
+      </c>
+      <c r="F33" s="13">
+        <v>4627830</v>
+      </c>
+      <c r="G33" s="13">
+        <v>254045</v>
+      </c>
+      <c r="H33" s="13">
+        <v>146739</v>
+      </c>
       <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5048354</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="C34" s="13">
+        <v>9366</v>
+      </c>
+      <c r="D34" s="13">
+        <v>80</v>
+      </c>
+      <c r="E34" s="13">
+        <v>274</v>
+      </c>
+      <c r="F34" s="13">
+        <v>5935994</v>
+      </c>
+      <c r="G34" s="13">
+        <v>919258</v>
+      </c>
+      <c r="H34" s="13">
+        <v>166406</v>
+      </c>
       <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7031378</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="C35" s="13">
+        <v>8061</v>
+      </c>
+      <c r="D35" s="13">
+        <v>36</v>
+      </c>
+      <c r="E35" s="13">
+        <v>111</v>
+      </c>
+      <c r="F35" s="13">
+        <v>8743991</v>
+      </c>
+      <c r="G35" s="13">
+        <v>56670</v>
+      </c>
+      <c r="H35" s="13">
+        <v>50373</v>
+      </c>
       <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8859242</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="C36" s="14">
+        <v>6615</v>
+      </c>
+      <c r="D36" s="14">
+        <v>54</v>
+      </c>
+      <c r="E36" s="14">
+        <v>221</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4272484</v>
+      </c>
+      <c r="G36" s="14">
+        <v>246609</v>
+      </c>
+      <c r="H36" s="14">
+        <v>105990</v>
+      </c>
       <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4631973</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="C37" s="14">
+        <v>11850</v>
+      </c>
+      <c r="D37" s="14">
+        <v>80</v>
+      </c>
+      <c r="E37" s="14">
+        <v>348</v>
+      </c>
+      <c r="F37" s="14">
+        <v>7256341</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1255804</v>
+      </c>
+      <c r="H37" s="14">
+        <v>135068</v>
+      </c>
       <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8659491</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="C38" s="14">
+        <v>11609</v>
+      </c>
+      <c r="D38" s="14">
+        <v>93</v>
+      </c>
+      <c r="E38" s="14">
+        <v>219</v>
+      </c>
+      <c r="F38" s="14">
+        <v>9869213</v>
+      </c>
+      <c r="G38" s="14">
+        <v>73973</v>
+      </c>
+      <c r="H38" s="14">
+        <v>45676</v>
+      </c>
       <c r="I38" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000783</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="G1:H2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>

--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -403,10 +403,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -700,9 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -763,21 +761,33 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="11">
+        <v>69699</v>
+      </c>
+      <c r="D6" s="11">
+        <v>150</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5277</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1410492</v>
+      </c>
+      <c r="G6" s="11">
+        <v>158891</v>
+      </c>
+      <c r="H6" s="11">
+        <v>610013</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I14" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>2254522</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -787,19 +797,31 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11">
+        <v>83689</v>
+      </c>
+      <c r="D7" s="11">
+        <v>102</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1844</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1001012</v>
+      </c>
+      <c r="G7" s="11">
+        <v>171160</v>
+      </c>
+      <c r="H7" s="11">
+        <v>556510</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1814317</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -809,19 +831,31 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="11">
+        <v>137742</v>
+      </c>
+      <c r="D8" s="11">
+        <v>143</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1440</v>
+      </c>
+      <c r="F8" s="11">
+        <v>895619</v>
+      </c>
+      <c r="G8" s="11">
+        <v>152791</v>
+      </c>
+      <c r="H8" s="11">
+        <v>27897</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1215632</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -832,21 +866,33 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="12">
+        <v>128504</v>
+      </c>
+      <c r="D9" s="12">
+        <v>163</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1082</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5075391</v>
+      </c>
+      <c r="G9" s="12">
+        <v>79785</v>
+      </c>
+      <c r="H9" s="12">
+        <v>554400</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5839325</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -857,19 +903,31 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="12">
+        <v>159436</v>
+      </c>
+      <c r="D10" s="12">
+        <v>109</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1884</v>
+      </c>
+      <c r="F10" s="12">
+        <v>6796491</v>
+      </c>
+      <c r="G10" s="12">
+        <v>836515</v>
+      </c>
+      <c r="H10" s="12">
+        <v>583513</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8377948</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -880,70 +938,118 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="12">
+        <v>133152</v>
+      </c>
+      <c r="D11" s="12">
+        <v>125</v>
+      </c>
+      <c r="E11" s="12">
+        <v>987</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5821900</v>
+      </c>
+      <c r="G11" s="12">
+        <v>73433</v>
+      </c>
+      <c r="H11" s="12">
+        <v>49266</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6078863</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="13">
+        <v>164107</v>
+      </c>
+      <c r="D12" s="13">
+        <v>166</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1206</v>
+      </c>
+      <c r="F12" s="13">
+        <v>29952490</v>
+      </c>
+      <c r="G12" s="13">
+        <v>55401</v>
+      </c>
+      <c r="H12" s="13">
+        <v>463736</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30637106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="13">
+        <v>173785</v>
+      </c>
+      <c r="D13" s="13">
+        <v>127</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1649</v>
+      </c>
+      <c r="F13" s="13">
+        <v>24480779</v>
+      </c>
+      <c r="G13" s="13">
+        <v>694722</v>
+      </c>
+      <c r="H13" s="13">
+        <v>651068</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26002130</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="13">
+        <v>133349</v>
+      </c>
+      <c r="D14" s="13">
+        <v>127</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1273</v>
+      </c>
+      <c r="F14" s="13">
+        <v>23848456</v>
+      </c>
+      <c r="G14" s="13">
+        <v>84014</v>
+      </c>
+      <c r="H14" s="13">
+        <v>46749</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24113968</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1014,7 +1120,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1062,7 +1168,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1214,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1260,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1202,7 +1308,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1354,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1294,7 +1400,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1342,7 +1448,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1388,7 +1494,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1452,7 +1558,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1483,7 +1589,7 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1617,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1645,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1569,7 +1675,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1597,7 +1703,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1731,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1655,7 +1761,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1789,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +1859,7 @@
       <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1789,7 +1895,7 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1929,7 @@
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -1850,12 +1956,12 @@
         <v>94889</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="18"/>
+      <c r="L44" s="17"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1884,14 +1990,14 @@
         <v>603820</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="18"/>
+      <c r="L45" s="17"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -1918,14 +2024,14 @@
         <v>616513</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="18"/>
+      <c r="L46" s="17"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
@@ -1952,14 +2058,14 @@
         <v>417650</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="18"/>
+      <c r="L47" s="17"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1988,10 +2094,10 @@
         <v>2245057</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
@@ -2018,10 +2124,10 @@
         <v>2142838</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -2049,10 +2155,15 @@
       </c>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>54</v>
       </c>
@@ -2066,8 +2177,13 @@
         <v>46</v>
       </c>
       <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1">
         <v>1</v>
@@ -2089,9 +2205,14 @@
       </c>
       <c r="I53" s="1"/>
       <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2107,7 +2228,7 @@
         <v>307</v>
       </c>
       <c r="F54" s="11">
-        <v>54855</v>
+        <v>34855</v>
       </c>
       <c r="G54" s="11">
         <v>9297</v>
@@ -2117,146 +2238,235 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ref="I54:I62" si="5">SUM(C54:H54)</f>
-        <v>269202</v>
-      </c>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+        <v>249202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="11">
+        <v>17545</v>
+      </c>
+      <c r="D55" s="11">
+        <v>41</v>
+      </c>
+      <c r="E55" s="11">
+        <v>98</v>
+      </c>
+      <c r="F55" s="11">
+        <v>45909</v>
+      </c>
+      <c r="G55" s="11">
+        <v>10955</v>
+      </c>
+      <c r="H55" s="11">
+        <v>216205</v>
+      </c>
       <c r="I55" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+        <v>290753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="11">
+        <v>32890</v>
+      </c>
+      <c r="D56" s="11">
+        <v>67</v>
+      </c>
+      <c r="E56" s="11">
+        <v>82</v>
+      </c>
+      <c r="F56" s="11">
+        <v>21395</v>
+      </c>
+      <c r="G56" s="11">
+        <v>12443</v>
+      </c>
+      <c r="H56" s="11">
+        <v>7863</v>
+      </c>
       <c r="I56" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+        <v>74740</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="C57" s="12">
+        <v>31910</v>
+      </c>
+      <c r="D57" s="12">
+        <v>55</v>
+      </c>
+      <c r="E57" s="12">
+        <v>58</v>
+      </c>
+      <c r="F57" s="12">
+        <v>160793</v>
+      </c>
+      <c r="G57" s="12">
+        <v>3942</v>
+      </c>
+      <c r="H57" s="12">
+        <v>107867</v>
+      </c>
       <c r="I57" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+        <v>304625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="C58" s="12">
+        <v>31496</v>
+      </c>
+      <c r="D58" s="12">
+        <v>37</v>
+      </c>
+      <c r="E58" s="12">
+        <v>113</v>
+      </c>
+      <c r="F58" s="12">
+        <v>162115</v>
+      </c>
+      <c r="G58" s="12">
+        <v>49055</v>
+      </c>
+      <c r="H58" s="12">
+        <v>107704</v>
+      </c>
       <c r="I58" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+        <v>350520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="C59" s="12">
+        <v>25035</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44</v>
+      </c>
+      <c r="E59" s="12">
+        <v>50</v>
+      </c>
+      <c r="F59" s="12">
+        <v>128205</v>
+      </c>
+      <c r="G59" s="12">
+        <v>6499</v>
+      </c>
+      <c r="H59" s="12">
+        <v>15558</v>
+      </c>
       <c r="I59" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+        <v>175391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="C60" s="13">
+        <v>31773</v>
+      </c>
+      <c r="D60" s="13">
+        <v>65</v>
+      </c>
+      <c r="E60" s="13">
+        <v>60</v>
+      </c>
+      <c r="F60" s="13">
+        <v>685682</v>
+      </c>
+      <c r="G60" s="13">
+        <v>5086</v>
+      </c>
+      <c r="H60" s="13">
+        <v>161219</v>
+      </c>
       <c r="I60" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+        <v>883885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
       <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="C61" s="13">
+        <v>31291</v>
+      </c>
+      <c r="D61" s="13">
+        <v>44</v>
+      </c>
+      <c r="E61" s="13">
+        <v>121</v>
+      </c>
+      <c r="F61" s="13">
+        <v>694931</v>
+      </c>
+      <c r="G61" s="13">
+        <v>59583</v>
+      </c>
+      <c r="H61" s="13">
+        <v>165700</v>
+      </c>
       <c r="I61" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+        <v>951670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
       <c r="B62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="C62" s="13">
+        <v>35301</v>
+      </c>
+      <c r="D62" s="13">
+        <v>50</v>
+      </c>
+      <c r="E62" s="13">
+        <v>62</v>
+      </c>
+      <c r="F62" s="13">
+        <v>532704</v>
+      </c>
+      <c r="G62" s="13">
+        <v>4418</v>
+      </c>
+      <c r="H62" s="13">
+        <v>14249</v>
+      </c>
       <c r="I62" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>586784</v>
       </c>
     </row>
   </sheetData>
@@ -2285,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:I62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2347,21 +2557,33 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="11">
+        <v>125162</v>
+      </c>
+      <c r="D6" s="11">
+        <v>133</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8289</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6247375</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1774413</v>
+      </c>
+      <c r="H6" s="11">
+        <v>494387</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I14" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>8649759</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -2371,19 +2593,31 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11">
+        <v>145730</v>
+      </c>
+      <c r="D7" s="11">
+        <v>142</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1442</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8940382</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1793918</v>
+      </c>
+      <c r="H7" s="11">
+        <v>563101</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11444715</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -2393,19 +2627,31 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="11">
+        <v>257793</v>
+      </c>
+      <c r="D8" s="11">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11">
+        <v>995</v>
+      </c>
+      <c r="F8" s="11">
+        <v>11585182</v>
+      </c>
+      <c r="G8" s="11">
+        <v>559855</v>
+      </c>
+      <c r="H8" s="11">
+        <v>111507</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12515407</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -2416,21 +2662,33 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="12">
+        <v>265262</v>
+      </c>
+      <c r="D9" s="12">
+        <v>190</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1277</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44882444</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1374816</v>
+      </c>
+      <c r="H9" s="12">
+        <v>464295</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46988284</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -2441,19 +2699,31 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="12">
+        <v>127091</v>
+      </c>
+      <c r="D10" s="12">
+        <v>125</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1615</v>
+      </c>
+      <c r="F10" s="12">
+        <v>54313736</v>
+      </c>
+      <c r="G10" s="12">
+        <v>11374301</v>
+      </c>
+      <c r="H10" s="12">
+        <v>521144</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66338012</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -2464,70 +2734,118 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="12">
+        <v>94438</v>
+      </c>
+      <c r="D11" s="12">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12">
+        <v>847</v>
+      </c>
+      <c r="F11" s="12">
+        <v>84234220</v>
+      </c>
+      <c r="G11" s="12">
+        <v>349861</v>
+      </c>
+      <c r="H11" s="12">
+        <v>197854</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84877295</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="13">
+        <v>87629</v>
+      </c>
+      <c r="D12" s="13">
+        <v>64</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1238</v>
+      </c>
+      <c r="F12" s="13">
+        <v>36259183</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1250844</v>
+      </c>
+      <c r="H12" s="13">
+        <v>349380</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37948338</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="13">
+        <v>157812</v>
+      </c>
+      <c r="D13" s="13">
+        <v>117</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2051</v>
+      </c>
+      <c r="F13" s="13">
+        <v>66990740</v>
+      </c>
+      <c r="G13" s="13">
+        <v>12107156</v>
+      </c>
+      <c r="H13" s="13">
+        <v>746812</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80004688</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="13">
+        <v>204534</v>
+      </c>
+      <c r="D14" s="13">
+        <v>129</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1386</v>
+      </c>
+      <c r="F14" s="13">
+        <v>104930839</v>
+      </c>
+      <c r="G14" s="13">
+        <v>505326</v>
+      </c>
+      <c r="H14" s="13">
+        <v>163578</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105805792</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2598,7 +2916,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2646,7 +2964,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +3010,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2738,7 +3056,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2786,7 +3104,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2832,7 +3150,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -2878,7 +3196,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2926,7 +3244,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2972,7 +3290,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -3036,7 +3354,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3066,7 +3384,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3412,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3440,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3152,7 +3470,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -3180,7 +3498,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -3208,7 +3526,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3238,7 +3556,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3584,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -3330,7 +3648,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3360,7 +3678,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3388,7 +3706,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3734,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3446,7 +3764,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -3474,7 +3792,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
@@ -3502,7 +3820,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3531,8 +3849,8 @@
         <v>2844458</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
@@ -3559,8 +3877,8 @@
         <v>5163395</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -3587,7 +3905,15 @@
         <v>6332124</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>54</v>
       </c>
@@ -3600,8 +3926,14 @@
       <c r="I52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1">
         <v>1</v>
@@ -3622,155 +3954,269 @@
         <v>6</v>
       </c>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C54" s="11">
+        <v>9303</v>
+      </c>
+      <c r="D54" s="11">
+        <v>68</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1062</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45887</v>
+      </c>
+      <c r="G54" s="11">
+        <v>125741</v>
+      </c>
+      <c r="H54" s="11">
+        <v>175371</v>
+      </c>
       <c r="I54" s="1">
         <f t="shared" ref="I54:I62" si="4">SUM(C54:H54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+        <v>357432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="11">
+        <v>8869</v>
+      </c>
+      <c r="D55" s="11">
+        <v>85</v>
+      </c>
+      <c r="E55" s="11">
+        <v>221</v>
+      </c>
+      <c r="F55" s="11">
+        <v>60440</v>
+      </c>
+      <c r="G55" s="11">
+        <v>114015</v>
+      </c>
+      <c r="H55" s="11">
+        <v>190165</v>
+      </c>
       <c r="I55" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+        <v>373795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="11">
+        <v>17773</v>
+      </c>
+      <c r="D56" s="11">
+        <v>53</v>
+      </c>
+      <c r="E56" s="11">
+        <v>165</v>
+      </c>
+      <c r="F56" s="11">
+        <v>28167</v>
+      </c>
+      <c r="G56" s="11">
+        <v>45651</v>
+      </c>
+      <c r="H56" s="11">
+        <v>22011</v>
+      </c>
       <c r="I56" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+        <v>113820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="C57" s="12">
+        <v>19821</v>
+      </c>
+      <c r="D57" s="12">
+        <v>90</v>
+      </c>
+      <c r="E57" s="12">
+        <v>182</v>
+      </c>
+      <c r="F57" s="12">
+        <v>211685</v>
+      </c>
+      <c r="G57" s="12">
+        <v>68331</v>
+      </c>
+      <c r="H57" s="12">
+        <v>178282</v>
+      </c>
       <c r="I57" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+        <v>478391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="C58" s="12">
+        <v>9750</v>
+      </c>
+      <c r="D58" s="12">
+        <v>77</v>
+      </c>
+      <c r="E58" s="12">
+        <v>252</v>
+      </c>
+      <c r="F58" s="12">
+        <v>213426</v>
+      </c>
+      <c r="G58" s="12">
+        <v>852953</v>
+      </c>
+      <c r="H58" s="12">
+        <v>176880</v>
+      </c>
       <c r="I58" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+        <v>1253338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="C59" s="12">
+        <v>9256</v>
+      </c>
+      <c r="D59" s="12">
+        <v>32</v>
+      </c>
+      <c r="E59" s="12">
+        <v>105</v>
+      </c>
+      <c r="F59" s="12">
+        <v>168783</v>
+      </c>
+      <c r="G59" s="12">
+        <v>30336</v>
+      </c>
+      <c r="H59" s="12">
+        <v>56555</v>
+      </c>
       <c r="I59" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+        <v>265067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="C60" s="13">
+        <v>5622</v>
+      </c>
+      <c r="D60" s="13">
+        <v>49</v>
+      </c>
+      <c r="E60" s="13">
+        <v>192</v>
+      </c>
+      <c r="F60" s="13">
+        <v>902706</v>
+      </c>
+      <c r="G60" s="13">
+        <v>69612</v>
+      </c>
+      <c r="H60" s="13">
+        <v>105866</v>
+      </c>
       <c r="I60" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+        <v>1084047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
       <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="C61" s="13">
+        <v>12966</v>
+      </c>
+      <c r="D61" s="13">
+        <v>71</v>
+      </c>
+      <c r="E61" s="13">
+        <v>328</v>
+      </c>
+      <c r="F61" s="13">
+        <v>914883</v>
+      </c>
+      <c r="G61" s="13">
+        <v>747183</v>
+      </c>
+      <c r="H61" s="13">
+        <v>247683</v>
+      </c>
       <c r="I61" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+        <v>1923114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
       <c r="B62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="C62" s="13">
+        <v>10942</v>
+      </c>
+      <c r="D62" s="13">
+        <v>94</v>
+      </c>
+      <c r="E62" s="13">
+        <v>210</v>
+      </c>
+      <c r="F62" s="13">
+        <v>662619</v>
+      </c>
+      <c r="G62" s="13">
+        <v>29142</v>
+      </c>
+      <c r="H62" s="13">
+        <v>66720</v>
+      </c>
       <c r="I62" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>769727</v>
       </c>
     </row>
   </sheetData>
@@ -3799,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3858,21 +4304,33 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="11">
+        <v>109365</v>
+      </c>
+      <c r="D6" s="11">
+        <v>50</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6263</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6367932</v>
+      </c>
+      <c r="G6" s="11">
+        <v>805445</v>
+      </c>
+      <c r="H6" s="11">
+        <v>683549</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I14" si="0">SUM(C6:H6)</f>
-        <v>0</v>
+        <v>7972604</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -3882,19 +4340,31 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11">
+        <v>130563</v>
+      </c>
+      <c r="D7" s="11">
+        <v>385</v>
+      </c>
+      <c r="E7" s="11">
+        <v>979</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13668545</v>
+      </c>
+      <c r="G7" s="11">
+        <v>875351</v>
+      </c>
+      <c r="H7" s="11">
+        <v>690821</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15366644</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -3904,19 +4374,31 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="11">
+        <v>224922</v>
+      </c>
+      <c r="D8" s="11">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1026</v>
+      </c>
+      <c r="F8" s="11">
+        <v>16693411</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1097360</v>
+      </c>
+      <c r="H8" s="11">
+        <v>122420</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18139278</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -3927,21 +4409,33 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="12">
+        <v>294392</v>
+      </c>
+      <c r="D9" s="12">
+        <v>153</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1091</v>
+      </c>
+      <c r="F9" s="12">
+        <v>51177294</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2852516</v>
+      </c>
+      <c r="H9" s="12">
+        <v>523599</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54849045</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -3952,19 +4446,31 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="12">
+        <v>170759</v>
+      </c>
+      <c r="D10" s="12">
+        <v>193</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1750</v>
+      </c>
+      <c r="F10" s="12">
+        <v>72817934</v>
+      </c>
+      <c r="G10" s="12">
+        <v>20378100</v>
+      </c>
+      <c r="H10" s="12">
+        <v>673203</v>
+      </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94041939</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>19</v>
@@ -3975,70 +4481,118 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="12">
+        <v>103225</v>
+      </c>
+      <c r="D11" s="12">
+        <v>72</v>
+      </c>
+      <c r="E11" s="12">
+        <v>661</v>
+      </c>
+      <c r="F11" s="12">
+        <v>128535201</v>
+      </c>
+      <c r="G11" s="12">
+        <v>689922</v>
+      </c>
+      <c r="H11" s="12">
+        <v>213775</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129542856</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="13">
+        <v>71493</v>
+      </c>
+      <c r="D12" s="13">
+        <v>93</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1719</v>
+      </c>
+      <c r="F12" s="13">
+        <v>67185486</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3118435</v>
+      </c>
+      <c r="H12" s="13">
+        <v>457630</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70834856</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="13">
+        <v>190613</v>
+      </c>
+      <c r="D13" s="13">
+        <v>139</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2486</v>
+      </c>
+      <c r="F13" s="13">
+        <v>90892440</v>
+      </c>
+      <c r="G13" s="13">
+        <v>23580870</v>
+      </c>
+      <c r="H13" s="13">
+        <v>771655</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115438203</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="13">
+        <v>161401</v>
+      </c>
+      <c r="D14" s="13">
+        <v>198</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1787</v>
+      </c>
+      <c r="F14" s="13">
+        <v>128640058</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1163036</v>
+      </c>
+      <c r="H14" s="13">
+        <v>242773</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130209253</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4077,7 +4631,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4123,7 +4677,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4723,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -4215,7 +4769,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4263,7 +4817,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -4309,7 +4863,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -4355,7 +4909,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4403,7 +4957,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4449,7 +5003,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
@@ -4551,7 +5105,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4581,7 +5135,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -4609,7 +5163,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
@@ -4637,7 +5191,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4667,7 +5221,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
@@ -4695,7 +5249,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -4723,7 +5277,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4753,7 +5307,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
@@ -4781,7 +5335,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -4845,7 +5399,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4875,7 +5429,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +5457,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +5485,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -4961,7 +5515,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -4989,7 +5543,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
@@ -5017,7 +5571,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -5046,8 +5600,8 @@
         <v>4631973</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
@@ -5074,8 +5628,8 @@
         <v>8659491</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
       <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
@@ -5102,7 +5656,15 @@
         <v>10000783</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>54</v>
       </c>
@@ -5115,8 +5677,14 @@
       <c r="I52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1">
         <v>1</v>
@@ -5137,155 +5705,269 @@
         <v>6</v>
       </c>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C54" s="11">
+        <v>10199</v>
+      </c>
+      <c r="D54" s="11">
+        <v>25</v>
+      </c>
+      <c r="E54" s="11">
+        <v>923</v>
+      </c>
+      <c r="F54" s="11">
+        <v>48677</v>
+      </c>
+      <c r="G54" s="11">
+        <v>49986</v>
+      </c>
+      <c r="H54" s="11">
+        <v>156749</v>
+      </c>
       <c r="I54" s="1">
         <f t="shared" ref="I54:I62" si="4">SUM(C54:H54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+        <v>266559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="11">
+        <v>7670</v>
+      </c>
+      <c r="D55" s="11">
+        <v>172</v>
+      </c>
+      <c r="E55" s="11">
+        <v>184</v>
+      </c>
+      <c r="F55" s="11">
+        <v>64115</v>
+      </c>
+      <c r="G55" s="11">
+        <v>71638</v>
+      </c>
+      <c r="H55" s="11">
+        <v>214906</v>
+      </c>
       <c r="I55" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+        <v>358685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="11">
+        <v>17667</v>
+      </c>
+      <c r="D56" s="11">
+        <v>55</v>
+      </c>
+      <c r="E56" s="11">
+        <v>203</v>
+      </c>
+      <c r="F56" s="11">
+        <v>29880</v>
+      </c>
+      <c r="G56" s="11">
+        <v>85437</v>
+      </c>
+      <c r="H56" s="11">
+        <v>39558</v>
+      </c>
       <c r="I56" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="C57" s="12">
+        <v>20328</v>
+      </c>
+      <c r="D57" s="12">
+        <v>90</v>
+      </c>
+      <c r="E57" s="12">
+        <v>197</v>
+      </c>
+      <c r="F57" s="12">
+        <v>224558</v>
+      </c>
+      <c r="G57" s="12">
+        <v>251477</v>
+      </c>
+      <c r="H57" s="12">
+        <v>154802</v>
+      </c>
       <c r="I57" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+        <v>651452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="C58" s="12">
+        <v>9785</v>
+      </c>
+      <c r="D58" s="12">
+        <v>76</v>
+      </c>
+      <c r="E58" s="12">
+        <v>288</v>
+      </c>
+      <c r="F58" s="12">
+        <v>226405</v>
+      </c>
+      <c r="G58" s="12">
+        <v>909965</v>
+      </c>
+      <c r="H58" s="12">
+        <v>175549</v>
+      </c>
       <c r="I58" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+        <v>1322068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="C59" s="12">
+        <v>8422</v>
+      </c>
+      <c r="D59" s="12">
+        <v>34</v>
+      </c>
+      <c r="E59" s="12">
+        <v>117</v>
+      </c>
+      <c r="F59" s="12">
+        <v>179047</v>
+      </c>
+      <c r="G59" s="12">
+        <v>56097</v>
+      </c>
+      <c r="H59" s="12">
+        <v>53141</v>
+      </c>
       <c r="I59" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+        <v>296858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="C60" s="13">
+        <v>6911</v>
+      </c>
+      <c r="D60" s="13">
+        <v>51</v>
+      </c>
+      <c r="E60" s="13">
+        <v>232</v>
+      </c>
+      <c r="F60" s="13">
+        <v>957602</v>
+      </c>
+      <c r="G60" s="13">
+        <v>244116</v>
+      </c>
+      <c r="H60" s="13">
+        <v>111814</v>
+      </c>
       <c r="I60" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+        <v>1320726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
       <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="C61" s="13">
+        <v>12380</v>
+      </c>
+      <c r="D61" s="13">
+        <v>76</v>
+      </c>
+      <c r="E61" s="13">
+        <v>366</v>
+      </c>
+      <c r="F61" s="13">
+        <v>970519</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1243109</v>
+      </c>
+      <c r="H61" s="13">
+        <v>142489</v>
+      </c>
       <c r="I61" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+        <v>2368939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
       <c r="B62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="C62" s="13">
+        <v>12129</v>
+      </c>
+      <c r="D62" s="13">
+        <v>88</v>
+      </c>
+      <c r="E62" s="13">
+        <v>230</v>
+      </c>
+      <c r="F62" s="13">
+        <v>594276</v>
+      </c>
+      <c r="G62" s="13">
+        <v>73225</v>
+      </c>
+      <c r="H62" s="13">
+        <v>48186</v>
+      </c>
       <c r="I62" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>728134</v>
       </c>
     </row>
   </sheetData>

--- a/hammer-project/hammer-shark/data_us/1_result.xlsx
+++ b/hammer-project/hammer-shark/data_us/1_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="34400" yWindow="-11240" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_1000" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="56">
   <si>
     <t>Test 1</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>SPARK v2</t>
+  </si>
+  <si>
+    <t>couple</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -716,6 +721,12 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>127396</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2495,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2512,6 +2523,12 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1105390</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4245,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4259,6 +4276,12 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>1794330</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
